--- a/data/trans_orig/P36B04_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B04_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03EBC7FD-ABA6-414F-B4D6-C7E9C0E44062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D43D12AD-0454-451B-BDAA-AA553048D905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1892BA6B-0AE5-496E-9DAF-534C515EC2A3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ADEDE806-E070-4299-971B-4016E406921D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -918,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C705475-69A1-4141-9A80-9DB8EE690FFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735D3402-82BC-45CF-8C3D-BA1E4CCD7DEF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
